--- a/Excel/Torino/season2_Torino.xlsx
+++ b/Excel/Torino/season2_Torino.xlsx
@@ -620,7 +620,7 @@
         <v>25</v>
       </c>
       <c r="P3" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +674,7 @@
         <v>23</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="P5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -836,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8">
